--- a/src/main/resources/files/总览.xlsx
+++ b/src/main/resources/files/总览.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="20220" windowHeight="12375" activeTab="2"/>
+    <workbookView windowWidth="28800" windowHeight="12375"/>
   </bookViews>
   <sheets>
     <sheet name="模块划分" sheetId="1" r:id="rId1"/>
@@ -16,7 +16,10 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="87" uniqueCount="85">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="86" uniqueCount="84">
+  <si>
+    <t>前台</t>
+  </si>
   <si>
     <t>模块</t>
   </si>
@@ -60,13 +63,7 @@
     <t>博客分类</t>
   </si>
   <si>
-    <t>一级分类</t>
-  </si>
-  <si>
     <t>博客标签</t>
-  </si>
-  <si>
-    <t>二级分类</t>
   </si>
   <si>
     <t>点赞、收藏、评论、打赏等功能</t>
@@ -442,7 +439,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="36">
+  <fills count="37">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -464,6 +461,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FF00B0F0"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC000"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -864,7 +867,7 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="7" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="7" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -888,16 +891,16 @@
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="6" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="7" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="7" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="8" borderId="12" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="7" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="8" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="8" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="9" borderId="12" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
@@ -906,85 +909,85 @@
     <xf numFmtId="0" fontId="15" fillId="0" borderId="14" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="20" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="19" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="20" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="19" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="20" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="19" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="20" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="19" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="20" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="19" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="20" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1019,8 +1022,8 @@
     <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -1385,10 +1388,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:H18"/>
+  <dimension ref="A1:H19"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:A5"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D18" sqref="D18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="7"/>
@@ -1403,34 +1406,34 @@
     <col min="12" max="12" width="13.125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="22.5" customHeight="1" spans="1:3">
-      <c r="A1" s="11" t="s">
+    <row r="1" ht="25" customHeight="1" spans="1:3">
+      <c r="A1" s="10" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="11" t="s">
+      <c r="B1" s="10"/>
+      <c r="C1" s="10"/>
+    </row>
+    <row r="2" ht="22.5" customHeight="1" spans="1:3">
+      <c r="A2" s="11" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="11" t="s">
+      <c r="B2" s="11" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="2" ht="22.5" customHeight="1" spans="1:3">
-      <c r="A2" s="12" t="s">
+      <c r="C2" s="11" t="s">
         <v>3</v>
       </c>
-      <c r="B2" s="4" t="s">
+    </row>
+    <row r="3" ht="22.5" customHeight="1" spans="1:3">
+      <c r="A3" s="12" t="s">
         <v>4</v>
       </c>
-      <c r="C2" s="4" t="s">
+      <c r="B3" s="4" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="3" ht="22.5" customHeight="1" spans="1:3">
-      <c r="A3" s="13"/>
-      <c r="B3" s="4" t="s">
+      <c r="C3" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="C3" s="4"/>
     </row>
     <row r="4" ht="22.5" customHeight="1" spans="1:3">
       <c r="A4" s="13"/>
@@ -1447,103 +1450,107 @@
       <c r="C5" s="4"/>
     </row>
     <row r="6" ht="22.5" customHeight="1" spans="1:3">
-      <c r="A6" s="14" t="s">
+      <c r="A6" s="13"/>
+      <c r="B6" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="B6" s="4" t="s">
+      <c r="C6" s="4"/>
+    </row>
+    <row r="7" ht="22.5" customHeight="1" spans="1:3">
+      <c r="A7" s="14" t="s">
         <v>10</v>
       </c>
-      <c r="C6" s="4" t="s">
+      <c r="B7" s="4" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="7" ht="22.5" customHeight="1" spans="1:3">
-      <c r="A7" s="15"/>
-      <c r="B7" s="4" t="s">
+      <c r="C7" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="C7" s="4"/>
     </row>
     <row r="8" ht="22.5" customHeight="1" spans="1:3">
       <c r="A8" s="15"/>
       <c r="B8" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="C8" s="4" t="s">
-        <v>14</v>
-      </c>
+      <c r="C8" s="4"/>
     </row>
     <row r="9" ht="22.5" customHeight="1" spans="1:3">
       <c r="A9" s="15"/>
       <c r="B9" s="4" t="s">
-        <v>15</v>
-      </c>
-      <c r="C9" s="4" t="s">
-        <v>16</v>
-      </c>
+        <v>14</v>
+      </c>
+      <c r="C9" s="4"/>
     </row>
     <row r="10" ht="22.5" customHeight="1" spans="1:3">
       <c r="A10" s="15"/>
       <c r="B10" s="4" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="C10" s="4"/>
     </row>
     <row r="11" ht="22.5" customHeight="1" spans="1:3">
       <c r="A11" s="15"/>
       <c r="B11" s="4" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="C11" s="4"/>
     </row>
     <row r="12" ht="22.5" customHeight="1" spans="1:3">
       <c r="A12" s="15"/>
       <c r="B12" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="C12" s="4"/>
+    </row>
+    <row r="13" ht="22.5" customHeight="1" spans="1:3">
+      <c r="A13" s="15"/>
+      <c r="B13" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="C13" s="4"/>
+    </row>
+    <row r="14" ht="22.5" customHeight="1" spans="1:3">
+      <c r="A14" s="12"/>
+      <c r="B14" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="C12" s="4"/>
-    </row>
-    <row r="13" ht="22.5" customHeight="1" spans="1:3">
-      <c r="A13" s="12"/>
-      <c r="B13" s="4" t="s">
+      <c r="C14" s="4"/>
+    </row>
+    <row r="15" ht="22.5" customHeight="1" spans="1:3">
+      <c r="A15" s="13" t="s">
         <v>20</v>
       </c>
-      <c r="C13" s="4"/>
-    </row>
-    <row r="14" ht="22.5" customHeight="1" spans="1:3">
-      <c r="A14" s="13" t="s">
+      <c r="B15" s="4" t="s">
         <v>21</v>
       </c>
-      <c r="B14" s="4" t="s">
+      <c r="C15" s="4"/>
+    </row>
+    <row r="16" ht="22.5" customHeight="1" spans="1:3">
+      <c r="A16" s="14" t="s">
         <v>22</v>
       </c>
-      <c r="C14" s="4"/>
-    </row>
-    <row r="15" ht="22.5" customHeight="1" spans="1:3">
-      <c r="A15" s="14" t="s">
+      <c r="B16" s="4" t="s">
         <v>23</v>
       </c>
-      <c r="B15" s="4" t="s">
+      <c r="C16" s="4"/>
+    </row>
+    <row r="17" ht="22.5" customHeight="1" spans="1:3">
+      <c r="A17" s="12"/>
+      <c r="B17" s="4" t="s">
         <v>24</v>
       </c>
-      <c r="C15" s="4"/>
-    </row>
-    <row r="16" ht="22.5" customHeight="1" spans="1:3">
-      <c r="A16" s="12"/>
-      <c r="B16" s="4" t="s">
-        <v>25</v>
-      </c>
-      <c r="C16" s="4"/>
-    </row>
-    <row r="17" ht="22.5" customHeight="1"/>
-    <row r="18" ht="15.5" customHeight="1" spans="8:8">
-      <c r="H18"/>
+      <c r="C17" s="4"/>
+    </row>
+    <row r="18" ht="22.5" customHeight="1"/>
+    <row r="19" ht="15.5" customHeight="1" spans="8:8">
+      <c r="H19"/>
     </row>
   </sheetData>
-  <mergeCells count="3">
-    <mergeCell ref="A2:A5"/>
-    <mergeCell ref="A6:A13"/>
-    <mergeCell ref="A15:A16"/>
+  <mergeCells count="4">
+    <mergeCell ref="A1:C1"/>
+    <mergeCell ref="A3:A6"/>
+    <mergeCell ref="A7:A14"/>
+    <mergeCell ref="A16:A17"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
@@ -1557,7 +1564,7 @@
   <dimension ref="A1:E24"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D1" sqref="D1:E1"/>
+      <selection activeCell="B34" sqref="B34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="4"/>
@@ -1569,47 +1576,47 @@
   <sheetData>
     <row r="1" ht="22.5" customHeight="1" spans="1:5">
       <c r="A1" s="7" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B1" s="8"/>
       <c r="C1"/>
       <c r="D1" s="7" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="E1" s="8"/>
     </row>
     <row r="2" ht="22.5" customHeight="1" spans="1:5">
       <c r="A2" s="9" t="s">
+        <v>27</v>
+      </c>
+      <c r="B2" s="9" t="s">
         <v>28</v>
-      </c>
-      <c r="B2" s="9" t="s">
-        <v>29</v>
       </c>
       <c r="C2"/>
       <c r="D2" s="9" t="s">
+        <v>27</v>
+      </c>
+      <c r="E2" s="9" t="s">
         <v>28</v>
       </c>
-      <c r="E2" s="9" t="s">
+    </row>
+    <row r="3" ht="22.5" customHeight="1" spans="1:5">
+      <c r="A3" s="6" t="s">
         <v>29</v>
       </c>
-    </row>
-    <row r="3" ht="22.5" customHeight="1" spans="1:5">
-      <c r="A3" s="10" t="s">
+      <c r="B3" s="6" t="s">
         <v>30</v>
       </c>
-      <c r="B3" s="10" t="s">
-        <v>31</v>
-      </c>
       <c r="C3"/>
-      <c r="D3" s="10"/>
-      <c r="E3" s="10"/>
+      <c r="D3" s="6"/>
+      <c r="E3" s="6"/>
     </row>
     <row r="4" ht="22.5" customHeight="1" spans="1:5">
       <c r="A4" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="B4" s="4" t="s">
         <v>32</v>
-      </c>
-      <c r="B4" s="4" t="s">
-        <v>33</v>
       </c>
       <c r="C4"/>
       <c r="D4" s="4"/>
@@ -1617,10 +1624,10 @@
     </row>
     <row r="5" ht="22.5" customHeight="1" spans="1:5">
       <c r="A5" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="B5" s="4" t="s">
         <v>34</v>
-      </c>
-      <c r="B5" s="4" t="s">
-        <v>35</v>
       </c>
       <c r="C5"/>
       <c r="D5" s="4"/>
@@ -1628,10 +1635,10 @@
     </row>
     <row r="6" ht="22.5" customHeight="1" spans="1:5">
       <c r="A6" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="B6" s="4" t="s">
         <v>36</v>
-      </c>
-      <c r="B6" s="4" t="s">
-        <v>37</v>
       </c>
       <c r="C6"/>
       <c r="D6" s="4"/>
@@ -1639,10 +1646,10 @@
     </row>
     <row r="7" ht="22.5" customHeight="1" spans="1:5">
       <c r="A7" s="4" t="s">
+        <v>37</v>
+      </c>
+      <c r="B7" s="4" t="s">
         <v>38</v>
-      </c>
-      <c r="B7" s="4" t="s">
-        <v>39</v>
       </c>
       <c r="C7"/>
       <c r="D7" s="4"/>
@@ -1650,10 +1657,10 @@
     </row>
     <row r="8" ht="22.5" customHeight="1" spans="1:5">
       <c r="A8" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="B8" s="4" t="s">
         <v>40</v>
-      </c>
-      <c r="B8" s="4" t="s">
-        <v>41</v>
       </c>
       <c r="C8"/>
       <c r="D8" s="4"/>
@@ -1661,10 +1668,10 @@
     </row>
     <row r="9" ht="22.5" customHeight="1" spans="1:5">
       <c r="A9" s="4" t="s">
+        <v>41</v>
+      </c>
+      <c r="B9" s="4" t="s">
         <v>42</v>
-      </c>
-      <c r="B9" s="4" t="s">
-        <v>43</v>
       </c>
       <c r="C9"/>
       <c r="D9" s="4"/>
@@ -1672,10 +1679,10 @@
     </row>
     <row r="10" ht="22.5" customHeight="1" spans="1:5">
       <c r="A10" s="4" t="s">
+        <v>43</v>
+      </c>
+      <c r="B10" s="4" t="s">
         <v>44</v>
-      </c>
-      <c r="B10" s="4" t="s">
-        <v>45</v>
       </c>
       <c r="C10"/>
       <c r="D10" s="4"/>
@@ -1683,50 +1690,50 @@
     </row>
     <row r="11" ht="22.5" customHeight="1" spans="1:5">
       <c r="A11" s="4" t="s">
+        <v>45</v>
+      </c>
+      <c r="B11" s="4" t="s">
         <v>46</v>
-      </c>
-      <c r="B11" s="4" t="s">
-        <v>47</v>
       </c>
       <c r="D11" s="4"/>
       <c r="E11" s="4"/>
     </row>
     <row r="12" ht="22.5" customHeight="1" spans="1:5">
       <c r="A12" s="4" t="s">
+        <v>47</v>
+      </c>
+      <c r="B12" s="4" t="s">
         <v>48</v>
-      </c>
-      <c r="B12" s="4" t="s">
-        <v>49</v>
       </c>
       <c r="D12" s="4"/>
       <c r="E12" s="4"/>
     </row>
     <row r="13" ht="22.5" customHeight="1" spans="1:5">
       <c r="A13" s="4" t="s">
+        <v>49</v>
+      </c>
+      <c r="B13" s="4" t="s">
         <v>50</v>
-      </c>
-      <c r="B13" s="4" t="s">
-        <v>51</v>
       </c>
       <c r="D13" s="4"/>
       <c r="E13" s="4"/>
     </row>
     <row r="14" ht="22.5" customHeight="1" spans="1:5">
       <c r="A14" s="4" t="s">
+        <v>51</v>
+      </c>
+      <c r="B14" s="4" t="s">
         <v>52</v>
-      </c>
-      <c r="B14" s="4" t="s">
-        <v>53</v>
       </c>
       <c r="D14" s="4"/>
       <c r="E14" s="4"/>
     </row>
     <row r="15" ht="22.5" customHeight="1" spans="1:5">
       <c r="A15" s="4" t="s">
+        <v>53</v>
+      </c>
+      <c r="B15" s="4" t="s">
         <v>54</v>
-      </c>
-      <c r="B15" s="4" t="s">
-        <v>55</v>
       </c>
       <c r="D15" s="4"/>
       <c r="E15" s="4"/>
@@ -1783,7 +1790,7 @@
   <sheetPr/>
   <dimension ref="A1:C13"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="D11" sqref="D11"/>
     </sheetView>
   </sheetViews>
@@ -1796,125 +1803,125 @@
   <sheetData>
     <row r="1" ht="18" customHeight="1" spans="1:3">
       <c r="A1" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="B1" s="2" t="s">
         <v>56</v>
       </c>
-      <c r="B1" s="2" t="s">
+      <c r="C1" s="2" t="s">
         <v>57</v>
-      </c>
-      <c r="C1" s="2" t="s">
-        <v>58</v>
       </c>
     </row>
     <row r="2" ht="16.5" spans="1:3">
       <c r="A2" s="3" t="s">
+        <v>58</v>
+      </c>
+      <c r="B2" s="4" t="s">
         <v>59</v>
       </c>
-      <c r="B2" s="4" t="s">
+      <c r="C2" s="4" t="s">
         <v>60</v>
-      </c>
-      <c r="C2" s="4" t="s">
-        <v>61</v>
       </c>
     </row>
     <row r="3" ht="16.5" spans="1:3">
       <c r="A3" s="5"/>
       <c r="B3" s="4" t="s">
+        <v>61</v>
+      </c>
+      <c r="C3" s="4" t="s">
         <v>62</v>
-      </c>
-      <c r="C3" s="4" t="s">
-        <v>63</v>
       </c>
     </row>
     <row r="4" ht="16.5" spans="1:3">
       <c r="A4" s="5"/>
       <c r="B4" s="4" t="s">
+        <v>63</v>
+      </c>
+      <c r="C4" s="4" t="s">
         <v>64</v>
-      </c>
-      <c r="C4" s="4" t="s">
-        <v>65</v>
       </c>
     </row>
     <row r="5" ht="16.5" spans="1:3">
       <c r="A5" s="5"/>
       <c r="B5" s="4" t="s">
+        <v>65</v>
+      </c>
+      <c r="C5" s="4" t="s">
         <v>66</v>
-      </c>
-      <c r="C5" s="4" t="s">
-        <v>67</v>
       </c>
     </row>
     <row r="6" ht="16.5" spans="1:3">
       <c r="A6" s="5"/>
       <c r="B6" s="4" t="s">
+        <v>67</v>
+      </c>
+      <c r="C6" s="4" t="s">
         <v>68</v>
-      </c>
-      <c r="C6" s="4" t="s">
-        <v>69</v>
       </c>
     </row>
     <row r="7" ht="16.5" spans="1:3">
       <c r="A7" s="6"/>
       <c r="B7" s="4" t="s">
+        <v>69</v>
+      </c>
+      <c r="C7" s="4" t="s">
         <v>70</v>
-      </c>
-      <c r="C7" s="4" t="s">
-        <v>71</v>
       </c>
     </row>
     <row r="8" ht="16.5" spans="1:3">
       <c r="A8" s="4" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="B8" s="4"/>
       <c r="C8" s="4" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
     </row>
     <row r="9" ht="16.5" spans="1:3">
       <c r="A9" s="4" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="B9" s="4"/>
       <c r="C9" s="4" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
     </row>
     <row r="10" ht="16.5" spans="1:3">
       <c r="A10" s="3" t="s">
+        <v>75</v>
+      </c>
+      <c r="B10" s="4" t="s">
         <v>76</v>
       </c>
-      <c r="B10" s="4" t="s">
+      <c r="C10" s="4" t="s">
         <v>77</v>
-      </c>
-      <c r="C10" s="4" t="s">
-        <v>78</v>
       </c>
     </row>
     <row r="11" ht="16.5" spans="1:3">
       <c r="A11" s="5"/>
       <c r="B11" s="4" t="s">
+        <v>78</v>
+      </c>
+      <c r="C11" s="4" t="s">
         <v>79</v>
-      </c>
-      <c r="C11" s="4" t="s">
-        <v>80</v>
       </c>
     </row>
     <row r="12" ht="16.5" spans="1:3">
       <c r="A12" s="6"/>
       <c r="B12" s="4" t="s">
+        <v>80</v>
+      </c>
+      <c r="C12" s="4" t="s">
         <v>81</v>
-      </c>
-      <c r="C12" s="4" t="s">
-        <v>82</v>
       </c>
     </row>
     <row r="13" ht="16.5" spans="1:3">
       <c r="A13" s="4" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="B13" s="4"/>
       <c r="C13" s="4" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
     </row>
   </sheetData>

--- a/src/main/resources/files/总览.xlsx
+++ b/src/main/resources/files/总览.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="28800" windowHeight="12375"/>
+    <workbookView windowWidth="15945" windowHeight="8055"/>
   </bookViews>
   <sheets>
     <sheet name="模块划分" sheetId="1" r:id="rId1"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="86" uniqueCount="84">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="92" uniqueCount="88">
   <si>
     <t>前台</t>
   </si>
@@ -87,12 +87,21 @@
     <t>用户模块</t>
   </si>
   <si>
+    <t>获取验证码</t>
+  </si>
+  <si>
     <t>用户注册</t>
   </si>
   <si>
     <t>用户登录</t>
   </si>
   <si>
+    <t>用户修改</t>
+  </si>
+  <si>
+    <t>用户退出</t>
+  </si>
+  <si>
     <t>后端技术</t>
   </si>
   <si>
@@ -123,24 +132,12 @@
     <t>SpringBoot</t>
   </si>
   <si>
-    <t>微服务框架</t>
-  </si>
-  <si>
-    <t>SpringCloud</t>
-  </si>
-  <si>
     <t>ORM框架</t>
   </si>
   <si>
     <t>Mybatis-Plus</t>
   </si>
   <si>
-    <t>认证和授权框架</t>
-  </si>
-  <si>
-    <t>SpringSecurity</t>
-  </si>
-  <si>
     <t>文档生产工具</t>
   </si>
   <si>
@@ -195,6 +192,18 @@
     <t>common</t>
   </si>
   <si>
+    <t>annotation</t>
+  </si>
+  <si>
+    <t>注解</t>
+  </si>
+  <si>
+    <t>aspect</t>
+  </si>
+  <si>
+    <t>切面</t>
+  </si>
+  <si>
     <t>config</t>
   </si>
   <si>
@@ -232,6 +241,9 @@
   </si>
   <si>
     <t>controller</t>
+  </si>
+  <si>
+    <t>无</t>
   </si>
   <si>
     <t>控制层</t>
@@ -991,7 +1003,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="16">
+  <cellXfs count="21">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1004,9 +1016,21 @@
     <xf numFmtId="0" fontId="1" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -1035,6 +1059,9 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1388,10 +1415,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:H19"/>
+  <dimension ref="A1:H22"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D18" sqref="D18"/>
+      <selection activeCell="B5" sqref="B5:C8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="7"/>
@@ -1407,150 +1434,171 @@
   </cols>
   <sheetData>
     <row r="1" ht="25" customHeight="1" spans="1:3">
-      <c r="A1" s="10" t="s">
+      <c r="A1" s="14" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="10"/>
-      <c r="C1" s="10"/>
+      <c r="B1" s="14"/>
+      <c r="C1" s="14"/>
     </row>
     <row r="2" ht="22.5" customHeight="1" spans="1:3">
-      <c r="A2" s="11" t="s">
+      <c r="A2" s="15" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="11" t="s">
+      <c r="B2" s="15" t="s">
         <v>2</v>
       </c>
-      <c r="C2" s="11" t="s">
+      <c r="C2" s="15" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="3" ht="22.5" customHeight="1" spans="1:3">
-      <c r="A3" s="12" t="s">
+      <c r="A3" s="16" t="s">
         <v>4</v>
       </c>
-      <c r="B3" s="4" t="s">
+      <c r="B3" s="7" t="s">
         <v>5</v>
       </c>
-      <c r="C3" s="4" t="s">
+      <c r="C3" s="7" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="4" ht="22.5" customHeight="1" spans="1:3">
-      <c r="A4" s="13"/>
-      <c r="B4" s="4" t="s">
+      <c r="A4" s="17"/>
+      <c r="B4" s="7" t="s">
         <v>7</v>
       </c>
-      <c r="C4" s="4"/>
+      <c r="C4" s="7"/>
     </row>
     <row r="5" ht="22.5" customHeight="1" spans="1:3">
-      <c r="A5" s="13"/>
-      <c r="B5" s="4" t="s">
+      <c r="A5" s="17"/>
+      <c r="B5" s="7" t="s">
         <v>8</v>
       </c>
-      <c r="C5" s="4"/>
+      <c r="C5" s="7"/>
     </row>
     <row r="6" ht="22.5" customHeight="1" spans="1:3">
-      <c r="A6" s="13"/>
-      <c r="B6" s="4" t="s">
+      <c r="A6" s="17"/>
+      <c r="B6" s="7" t="s">
         <v>9</v>
       </c>
-      <c r="C6" s="4"/>
+      <c r="C6" s="7"/>
     </row>
     <row r="7" ht="22.5" customHeight="1" spans="1:3">
-      <c r="A7" s="14" t="s">
+      <c r="A7" s="18" t="s">
         <v>10</v>
       </c>
-      <c r="B7" s="4" t="s">
+      <c r="B7" s="7" t="s">
         <v>11</v>
       </c>
-      <c r="C7" s="4" t="s">
+      <c r="C7" s="7" t="s">
         <v>12</v>
       </c>
     </row>
     <row r="8" ht="22.5" customHeight="1" spans="1:3">
-      <c r="A8" s="15"/>
-      <c r="B8" s="4" t="s">
+      <c r="A8" s="19"/>
+      <c r="B8" s="7" t="s">
         <v>13</v>
       </c>
-      <c r="C8" s="4"/>
+      <c r="C8" s="7"/>
     </row>
     <row r="9" ht="22.5" customHeight="1" spans="1:3">
-      <c r="A9" s="15"/>
-      <c r="B9" s="4" t="s">
+      <c r="A9" s="19"/>
+      <c r="B9" s="7" t="s">
         <v>14</v>
       </c>
-      <c r="C9" s="4"/>
+      <c r="C9" s="7"/>
     </row>
     <row r="10" ht="22.5" customHeight="1" spans="1:3">
-      <c r="A10" s="15"/>
-      <c r="B10" s="4" t="s">
+      <c r="A10" s="19"/>
+      <c r="B10" s="7" t="s">
         <v>15</v>
       </c>
-      <c r="C10" s="4"/>
+      <c r="C10" s="7"/>
     </row>
     <row r="11" ht="22.5" customHeight="1" spans="1:3">
-      <c r="A11" s="15"/>
-      <c r="B11" s="4" t="s">
+      <c r="A11" s="19"/>
+      <c r="B11" s="7" t="s">
         <v>16</v>
       </c>
-      <c r="C11" s="4"/>
+      <c r="C11" s="7"/>
     </row>
     <row r="12" ht="22.5" customHeight="1" spans="1:3">
-      <c r="A12" s="15"/>
-      <c r="B12" s="4" t="s">
+      <c r="A12" s="19"/>
+      <c r="B12" s="7" t="s">
         <v>17</v>
       </c>
-      <c r="C12" s="4"/>
+      <c r="C12" s="7"/>
     </row>
     <row r="13" ht="22.5" customHeight="1" spans="1:3">
-      <c r="A13" s="15"/>
-      <c r="B13" s="4" t="s">
+      <c r="A13" s="19"/>
+      <c r="B13" s="7" t="s">
         <v>18</v>
       </c>
-      <c r="C13" s="4"/>
+      <c r="C13" s="7"/>
     </row>
     <row r="14" ht="22.5" customHeight="1" spans="1:3">
-      <c r="A14" s="12"/>
-      <c r="B14" s="4" t="s">
+      <c r="A14" s="16"/>
+      <c r="B14" s="7" t="s">
         <v>19</v>
       </c>
-      <c r="C14" s="4"/>
+      <c r="C14" s="7"/>
     </row>
     <row r="15" ht="22.5" customHeight="1" spans="1:3">
-      <c r="A15" s="13" t="s">
+      <c r="A15" s="17" t="s">
         <v>20</v>
       </c>
-      <c r="B15" s="4" t="s">
+      <c r="B15" s="7" t="s">
         <v>21</v>
       </c>
-      <c r="C15" s="4"/>
+      <c r="C15" s="7"/>
     </row>
     <row r="16" ht="22.5" customHeight="1" spans="1:3">
-      <c r="A16" s="14" t="s">
+      <c r="A16" s="18" t="s">
         <v>22</v>
       </c>
-      <c r="B16" s="4" t="s">
+      <c r="B16" s="7" t="s">
         <v>23</v>
       </c>
-      <c r="C16" s="4"/>
+      <c r="C16" s="7"/>
     </row>
     <row r="17" ht="22.5" customHeight="1" spans="1:3">
-      <c r="A17" s="12"/>
-      <c r="B17" s="4" t="s">
+      <c r="A17" s="20"/>
+      <c r="B17" s="7" t="s">
         <v>24</v>
       </c>
-      <c r="C17" s="4"/>
-    </row>
-    <row r="18" ht="22.5" customHeight="1"/>
-    <row r="19" ht="15.5" customHeight="1" spans="8:8">
-      <c r="H19"/>
+      <c r="C17" s="7"/>
+    </row>
+    <row r="18" ht="22.5" customHeight="1" spans="1:3">
+      <c r="A18" s="20"/>
+      <c r="B18" s="7" t="s">
+        <v>25</v>
+      </c>
+      <c r="C18" s="7"/>
+    </row>
+    <row r="19" ht="22.5" customHeight="1" spans="1:3">
+      <c r="A19" s="20"/>
+      <c r="B19" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="C19" s="7"/>
+    </row>
+    <row r="20" ht="22.5" customHeight="1" spans="1:3">
+      <c r="A20" s="16"/>
+      <c r="B20" s="7" t="s">
+        <v>27</v>
+      </c>
+      <c r="C20" s="7"/>
+    </row>
+    <row r="21" ht="22.5" customHeight="1"/>
+    <row r="22" ht="15.5" customHeight="1" spans="8:8">
+      <c r="H22"/>
     </row>
   </sheetData>
   <mergeCells count="4">
     <mergeCell ref="A1:C1"/>
     <mergeCell ref="A3:A6"/>
     <mergeCell ref="A7:A14"/>
-    <mergeCell ref="A16:A17"/>
+    <mergeCell ref="A16:A20"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
@@ -1564,7 +1612,7 @@
   <dimension ref="A1:E24"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B34" sqref="B34"/>
+      <selection activeCell="D13" sqref="D13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="4"/>
@@ -1575,168 +1623,156 @@
   </cols>
   <sheetData>
     <row r="1" ht="22.5" customHeight="1" spans="1:5">
-      <c r="A1" s="7" t="s">
-        <v>25</v>
-      </c>
-      <c r="B1" s="8"/>
+      <c r="A1" s="11" t="s">
+        <v>28</v>
+      </c>
+      <c r="B1" s="12"/>
       <c r="C1"/>
-      <c r="D1" s="7" t="s">
-        <v>26</v>
-      </c>
-      <c r="E1" s="8"/>
+      <c r="D1" s="11" t="s">
+        <v>29</v>
+      </c>
+      <c r="E1" s="12"/>
     </row>
     <row r="2" ht="22.5" customHeight="1" spans="1:5">
-      <c r="A2" s="9" t="s">
-        <v>27</v>
-      </c>
-      <c r="B2" s="9" t="s">
-        <v>28</v>
+      <c r="A2" s="13" t="s">
+        <v>30</v>
+      </c>
+      <c r="B2" s="13" t="s">
+        <v>31</v>
       </c>
       <c r="C2"/>
-      <c r="D2" s="9" t="s">
-        <v>27</v>
-      </c>
-      <c r="E2" s="9" t="s">
-        <v>28</v>
+      <c r="D2" s="13" t="s">
+        <v>30</v>
+      </c>
+      <c r="E2" s="13" t="s">
+        <v>31</v>
       </c>
     </row>
     <row r="3" ht="22.5" customHeight="1" spans="1:5">
-      <c r="A3" s="6" t="s">
-        <v>29</v>
-      </c>
-      <c r="B3" s="6" t="s">
-        <v>30</v>
+      <c r="A3" s="10" t="s">
+        <v>32</v>
+      </c>
+      <c r="B3" s="10" t="s">
+        <v>33</v>
       </c>
       <c r="C3"/>
-      <c r="D3" s="6"/>
-      <c r="E3" s="6"/>
+      <c r="D3" s="10"/>
+      <c r="E3" s="10"/>
     </row>
     <row r="4" ht="22.5" customHeight="1" spans="1:5">
-      <c r="A4" s="4" t="s">
-        <v>31</v>
-      </c>
-      <c r="B4" s="4" t="s">
-        <v>32</v>
+      <c r="A4" s="7" t="s">
+        <v>34</v>
+      </c>
+      <c r="B4" s="7" t="s">
+        <v>35</v>
       </c>
       <c r="C4"/>
-      <c r="D4" s="4"/>
-      <c r="E4" s="4"/>
+      <c r="D4" s="7"/>
+      <c r="E4" s="7"/>
     </row>
     <row r="5" ht="22.5" customHeight="1" spans="1:5">
-      <c r="A5" s="4" t="s">
-        <v>33</v>
-      </c>
-      <c r="B5" s="4" t="s">
-        <v>34</v>
+      <c r="A5" s="7" t="s">
+        <v>36</v>
+      </c>
+      <c r="B5" s="7" t="s">
+        <v>37</v>
       </c>
       <c r="C5"/>
-      <c r="D5" s="4"/>
-      <c r="E5" s="4"/>
+      <c r="D5" s="7"/>
+      <c r="E5" s="7"/>
     </row>
     <row r="6" ht="22.5" customHeight="1" spans="1:5">
-      <c r="A6" s="4" t="s">
-        <v>35</v>
-      </c>
-      <c r="B6" s="4" t="s">
-        <v>36</v>
+      <c r="A6" s="7" t="s">
+        <v>38</v>
+      </c>
+      <c r="B6" s="7" t="s">
+        <v>39</v>
       </c>
       <c r="C6"/>
-      <c r="D6" s="4"/>
-      <c r="E6" s="4"/>
+      <c r="D6" s="7"/>
+      <c r="E6" s="7"/>
     </row>
     <row r="7" ht="22.5" customHeight="1" spans="1:5">
-      <c r="A7" s="4" t="s">
-        <v>37</v>
-      </c>
-      <c r="B7" s="4" t="s">
-        <v>38</v>
+      <c r="A7" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="B7" s="7" t="s">
+        <v>41</v>
       </c>
       <c r="C7"/>
-      <c r="D7" s="4"/>
-      <c r="E7" s="4"/>
+      <c r="D7" s="7"/>
+      <c r="E7" s="7"/>
     </row>
     <row r="8" ht="22.5" customHeight="1" spans="1:5">
-      <c r="A8" s="4" t="s">
-        <v>39</v>
-      </c>
-      <c r="B8" s="4" t="s">
-        <v>40</v>
+      <c r="A8" s="7" t="s">
+        <v>42</v>
+      </c>
+      <c r="B8" s="7" t="s">
+        <v>43</v>
       </c>
       <c r="C8"/>
-      <c r="D8" s="4"/>
-      <c r="E8" s="4"/>
+      <c r="D8" s="7"/>
+      <c r="E8" s="7"/>
     </row>
     <row r="9" ht="22.5" customHeight="1" spans="1:5">
-      <c r="A9" s="4" t="s">
-        <v>41</v>
-      </c>
-      <c r="B9" s="4" t="s">
-        <v>42</v>
+      <c r="A9" s="7" t="s">
+        <v>44</v>
+      </c>
+      <c r="B9" s="7" t="s">
+        <v>45</v>
       </c>
       <c r="C9"/>
-      <c r="D9" s="4"/>
-      <c r="E9" s="4"/>
+      <c r="D9" s="7"/>
+      <c r="E9" s="7"/>
     </row>
     <row r="10" ht="22.5" customHeight="1" spans="1:5">
-      <c r="A10" s="4" t="s">
-        <v>43</v>
-      </c>
-      <c r="B10" s="4" t="s">
-        <v>44</v>
+      <c r="A10" s="7" t="s">
+        <v>46</v>
+      </c>
+      <c r="B10" s="7" t="s">
+        <v>47</v>
       </c>
       <c r="C10"/>
-      <c r="D10" s="4"/>
-      <c r="E10" s="4"/>
+      <c r="D10" s="7"/>
+      <c r="E10" s="7"/>
     </row>
     <row r="11" ht="22.5" customHeight="1" spans="1:5">
-      <c r="A11" s="4" t="s">
-        <v>45</v>
-      </c>
-      <c r="B11" s="4" t="s">
-        <v>46</v>
-      </c>
-      <c r="D11" s="4"/>
-      <c r="E11" s="4"/>
+      <c r="A11" s="7" t="s">
+        <v>48</v>
+      </c>
+      <c r="B11" s="7" t="s">
+        <v>49</v>
+      </c>
+      <c r="D11" s="7"/>
+      <c r="E11" s="7"/>
     </row>
     <row r="12" ht="22.5" customHeight="1" spans="1:5">
-      <c r="A12" s="4" t="s">
-        <v>47</v>
-      </c>
-      <c r="B12" s="4" t="s">
-        <v>48</v>
-      </c>
-      <c r="D12" s="4"/>
-      <c r="E12" s="4"/>
+      <c r="A12" s="7" t="s">
+        <v>50</v>
+      </c>
+      <c r="B12" s="7" t="s">
+        <v>51</v>
+      </c>
+      <c r="D12" s="7"/>
+      <c r="E12" s="7"/>
     </row>
     <row r="13" ht="22.5" customHeight="1" spans="1:5">
-      <c r="A13" s="4" t="s">
-        <v>49</v>
-      </c>
-      <c r="B13" s="4" t="s">
-        <v>50</v>
-      </c>
-      <c r="D13" s="4"/>
-      <c r="E13" s="4"/>
-    </row>
-    <row r="14" ht="22.5" customHeight="1" spans="1:5">
-      <c r="A14" s="4" t="s">
-        <v>51</v>
-      </c>
-      <c r="B14" s="4" t="s">
+      <c r="A13" s="7" t="s">
         <v>52</v>
       </c>
-      <c r="D14" s="4"/>
-      <c r="E14" s="4"/>
-    </row>
-    <row r="15" ht="22.5" customHeight="1" spans="1:5">
-      <c r="A15" s="4" t="s">
+      <c r="B13" s="7" t="s">
         <v>53</v>
       </c>
-      <c r="B15" s="4" t="s">
-        <v>54</v>
-      </c>
-      <c r="D15" s="4"/>
-      <c r="E15" s="4"/>
+      <c r="D13" s="7"/>
+      <c r="E13" s="7"/>
+    </row>
+    <row r="14" ht="22.5" customHeight="1" spans="4:5">
+      <c r="D14" s="7"/>
+      <c r="E14" s="7"/>
+    </row>
+    <row r="15" ht="22.5" customHeight="1" spans="4:5">
+      <c r="D15" s="7"/>
+      <c r="E15" s="7"/>
     </row>
     <row r="16" spans="1:2">
       <c r="A16"/>
@@ -1788,10 +1824,10 @@
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:C13"/>
+  <dimension ref="A1:C15"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D11" sqref="D11"/>
+    <sheetView topLeftCell="A8" workbookViewId="0">
+      <selection activeCell="C15" sqref="C15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="2"/>
@@ -1803,131 +1839,155 @@
   <sheetData>
     <row r="1" ht="18" customHeight="1" spans="1:3">
       <c r="A1" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="B1" s="2" t="s">
         <v>55</v>
       </c>
-      <c r="B1" s="2" t="s">
+      <c r="C1" s="2" t="s">
         <v>56</v>
       </c>
-      <c r="C1" s="2" t="s">
+    </row>
+    <row r="2" ht="18" customHeight="1" spans="1:3">
+      <c r="A2" s="3" t="s">
         <v>57</v>
       </c>
-    </row>
-    <row r="2" ht="16.5" spans="1:3">
-      <c r="A2" s="3" t="s">
+      <c r="B2" s="4" t="s">
         <v>58</v>
       </c>
-      <c r="B2" s="4" t="s">
+      <c r="C2" s="4" t="s">
         <v>59</v>
-      </c>
-      <c r="C2" s="4" t="s">
-        <v>60</v>
       </c>
     </row>
     <row r="3" ht="16.5" spans="1:3">
       <c r="A3" s="5"/>
-      <c r="B3" s="4" t="s">
+      <c r="B3" s="6" t="s">
+        <v>60</v>
+      </c>
+      <c r="C3" s="6" t="s">
         <v>61</v>
-      </c>
-      <c r="C3" s="4" t="s">
-        <v>62</v>
       </c>
     </row>
     <row r="4" ht="16.5" spans="1:3">
       <c r="A4" s="5"/>
-      <c r="B4" s="4" t="s">
+      <c r="B4" s="7" t="s">
+        <v>62</v>
+      </c>
+      <c r="C4" s="7" t="s">
         <v>63</v>
-      </c>
-      <c r="C4" s="4" t="s">
-        <v>64</v>
       </c>
     </row>
     <row r="5" ht="16.5" spans="1:3">
       <c r="A5" s="5"/>
-      <c r="B5" s="4" t="s">
+      <c r="B5" s="7" t="s">
+        <v>64</v>
+      </c>
+      <c r="C5" s="7" t="s">
         <v>65</v>
-      </c>
-      <c r="C5" s="4" t="s">
-        <v>66</v>
       </c>
     </row>
     <row r="6" ht="16.5" spans="1:3">
       <c r="A6" s="5"/>
-      <c r="B6" s="4" t="s">
+      <c r="B6" s="7" t="s">
+        <v>66</v>
+      </c>
+      <c r="C6" s="7" t="s">
         <v>67</v>
       </c>
-      <c r="C6" s="4" t="s">
+    </row>
+    <row r="7" ht="16.5" spans="1:3">
+      <c r="A7" s="5"/>
+      <c r="B7" s="7" t="s">
         <v>68</v>
       </c>
-    </row>
-    <row r="7" ht="16.5" spans="1:3">
-      <c r="A7" s="6"/>
-      <c r="B7" s="4" t="s">
+      <c r="C7" s="7" t="s">
         <v>69</v>
       </c>
-      <c r="C7" s="4" t="s">
+    </row>
+    <row r="8" ht="16.5" spans="1:3">
+      <c r="A8" s="5"/>
+      <c r="B8" s="7" t="s">
         <v>70</v>
       </c>
-    </row>
-    <row r="8" ht="16.5" spans="1:3">
-      <c r="A8" s="4" t="s">
+      <c r="C8" s="7" t="s">
         <v>71</v>
       </c>
-      <c r="B8" s="4"/>
-      <c r="C8" s="4" t="s">
+    </row>
+    <row r="9" ht="16.5" spans="1:3">
+      <c r="A9" s="8"/>
+      <c r="B9" s="7" t="s">
         <v>72</v>
       </c>
-    </row>
-    <row r="9" ht="16.5" spans="1:3">
-      <c r="A9" s="4" t="s">
+      <c r="C9" s="7" t="s">
         <v>73</v>
       </c>
-      <c r="B9" s="4"/>
-      <c r="C9" s="4" t="s">
+    </row>
+    <row r="10" ht="16.5" spans="1:3">
+      <c r="A10" s="7" t="s">
         <v>74</v>
       </c>
-    </row>
-    <row r="10" ht="16.5" spans="1:3">
-      <c r="A10" s="3" t="s">
+      <c r="B10" s="7" t="s">
         <v>75</v>
       </c>
-      <c r="B10" s="4" t="s">
+      <c r="C10" s="7" t="s">
         <v>76</v>
       </c>
-      <c r="C10" s="4" t="s">
+    </row>
+    <row r="11" ht="16.5" spans="1:3">
+      <c r="A11" s="7" t="s">
         <v>77</v>
       </c>
-    </row>
-    <row r="11" ht="16.5" spans="1:3">
-      <c r="A11" s="5"/>
-      <c r="B11" s="4" t="s">
+      <c r="B11" s="7" t="s">
+        <v>75</v>
+      </c>
+      <c r="C11" s="7" t="s">
         <v>78</v>
       </c>
-      <c r="C11" s="4" t="s">
+    </row>
+    <row r="12" ht="16.5" spans="1:3">
+      <c r="A12" s="4" t="s">
         <v>79</v>
       </c>
-    </row>
-    <row r="12" ht="16.5" spans="1:3">
-      <c r="A12" s="6"/>
-      <c r="B12" s="4" t="s">
+      <c r="B12" s="7" t="s">
         <v>80</v>
       </c>
-      <c r="C12" s="4" t="s">
+      <c r="C12" s="7" t="s">
         <v>81</v>
       </c>
     </row>
     <row r="13" ht="16.5" spans="1:3">
-      <c r="A13" s="4" t="s">
+      <c r="A13" s="9"/>
+      <c r="B13" s="7" t="s">
         <v>82</v>
       </c>
-      <c r="B13" s="4"/>
-      <c r="C13" s="4" t="s">
+      <c r="C13" s="7" t="s">
         <v>83</v>
+      </c>
+    </row>
+    <row r="14" ht="16.5" spans="1:3">
+      <c r="A14" s="10"/>
+      <c r="B14" s="7" t="s">
+        <v>84</v>
+      </c>
+      <c r="C14" s="7" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="15" ht="16.5" spans="1:3">
+      <c r="A15" s="7" t="s">
+        <v>86</v>
+      </c>
+      <c r="B15" s="7" t="s">
+        <v>75</v>
+      </c>
+      <c r="C15" s="7" t="s">
+        <v>87</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="2">
-    <mergeCell ref="A2:A7"/>
-    <mergeCell ref="A10:A12"/>
+    <mergeCell ref="A2:A9"/>
+    <mergeCell ref="A12:A14"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <headerFooter/>

--- a/src/main/resources/files/总览.xlsx
+++ b/src/main/resources/files/总览.xlsx
@@ -4,19 +4,32 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="15945" windowHeight="8055"/>
+    <workbookView windowWidth="28800" windowHeight="12375" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="模块划分" sheetId="1" r:id="rId1"/>
     <sheet name="技术栈" sheetId="2" r:id="rId2"/>
     <sheet name="后端项目结构" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="144525"/>
+  <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="92" uniqueCount="88">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="96" uniqueCount="92">
   <si>
     <t>前台</t>
   </si>
@@ -124,6 +137,18 @@
   </si>
   <si>
     <t>Redis</t>
+  </si>
+  <si>
+    <t>消息队列</t>
+  </si>
+  <si>
+    <t>Kafka</t>
+  </si>
+  <si>
+    <t>搜索引擎</t>
+  </si>
+  <si>
+    <t>ElasticSearch</t>
   </si>
   <si>
     <t>MVC框架</t>
@@ -285,7 +310,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9" mc:Ignorable="xr9">
   <numFmts count="4">
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
@@ -1003,7 +1028,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="21">
+  <cellXfs count="16">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1016,27 +1041,15 @@
     <xf numFmtId="0" fontId="1" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -1059,9 +1072,6 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1417,7 +1427,7 @@
   <sheetPr/>
   <dimension ref="A1:H22"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B5" sqref="B5:C8"/>
     </sheetView>
   </sheetViews>
@@ -1434,160 +1444,160 @@
   </cols>
   <sheetData>
     <row r="1" ht="25" customHeight="1" spans="1:3">
-      <c r="A1" s="14" t="s">
+      <c r="A1" s="10" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="14"/>
-      <c r="C1" s="14"/>
+      <c r="B1" s="10"/>
+      <c r="C1" s="10"/>
     </row>
     <row r="2" ht="22.5" customHeight="1" spans="1:3">
-      <c r="A2" s="15" t="s">
+      <c r="A2" s="11" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="15" t="s">
+      <c r="B2" s="11" t="s">
         <v>2</v>
       </c>
-      <c r="C2" s="15" t="s">
+      <c r="C2" s="11" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="3" ht="22.5" customHeight="1" spans="1:3">
-      <c r="A3" s="16" t="s">
+      <c r="A3" s="12" t="s">
         <v>4</v>
       </c>
-      <c r="B3" s="7" t="s">
+      <c r="B3" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="C3" s="7" t="s">
+      <c r="C3" s="5" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="4" ht="22.5" customHeight="1" spans="1:3">
-      <c r="A4" s="17"/>
-      <c r="B4" s="7" t="s">
+      <c r="A4" s="13"/>
+      <c r="B4" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="C4" s="7"/>
+      <c r="C4" s="5"/>
     </row>
     <row r="5" ht="22.5" customHeight="1" spans="1:3">
-      <c r="A5" s="17"/>
-      <c r="B5" s="7" t="s">
+      <c r="A5" s="13"/>
+      <c r="B5" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="C5" s="7"/>
+      <c r="C5" s="5"/>
     </row>
     <row r="6" ht="22.5" customHeight="1" spans="1:3">
-      <c r="A6" s="17"/>
-      <c r="B6" s="7" t="s">
+      <c r="A6" s="13"/>
+      <c r="B6" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="C6" s="7"/>
+      <c r="C6" s="5"/>
     </row>
     <row r="7" ht="22.5" customHeight="1" spans="1:3">
-      <c r="A7" s="18" t="s">
+      <c r="A7" s="14" t="s">
         <v>10</v>
       </c>
-      <c r="B7" s="7" t="s">
+      <c r="B7" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="C7" s="7" t="s">
+      <c r="C7" s="5" t="s">
         <v>12</v>
       </c>
     </row>
     <row r="8" ht="22.5" customHeight="1" spans="1:3">
-      <c r="A8" s="19"/>
-      <c r="B8" s="7" t="s">
+      <c r="A8" s="15"/>
+      <c r="B8" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="C8" s="7"/>
+      <c r="C8" s="5"/>
     </row>
     <row r="9" ht="22.5" customHeight="1" spans="1:3">
-      <c r="A9" s="19"/>
-      <c r="B9" s="7" t="s">
+      <c r="A9" s="15"/>
+      <c r="B9" s="5" t="s">
         <v>14</v>
       </c>
-      <c r="C9" s="7"/>
+      <c r="C9" s="5"/>
     </row>
     <row r="10" ht="22.5" customHeight="1" spans="1:3">
-      <c r="A10" s="19"/>
-      <c r="B10" s="7" t="s">
+      <c r="A10" s="15"/>
+      <c r="B10" s="5" t="s">
         <v>15</v>
       </c>
-      <c r="C10" s="7"/>
+      <c r="C10" s="5"/>
     </row>
     <row r="11" ht="22.5" customHeight="1" spans="1:3">
-      <c r="A11" s="19"/>
-      <c r="B11" s="7" t="s">
+      <c r="A11" s="15"/>
+      <c r="B11" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="C11" s="7"/>
+      <c r="C11" s="5"/>
     </row>
     <row r="12" ht="22.5" customHeight="1" spans="1:3">
-      <c r="A12" s="19"/>
-      <c r="B12" s="7" t="s">
+      <c r="A12" s="15"/>
+      <c r="B12" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="C12" s="7"/>
+      <c r="C12" s="5"/>
     </row>
     <row r="13" ht="22.5" customHeight="1" spans="1:3">
-      <c r="A13" s="19"/>
-      <c r="B13" s="7" t="s">
+      <c r="A13" s="15"/>
+      <c r="B13" s="5" t="s">
         <v>18</v>
       </c>
-      <c r="C13" s="7"/>
+      <c r="C13" s="5"/>
     </row>
     <row r="14" ht="22.5" customHeight="1" spans="1:3">
-      <c r="A14" s="16"/>
-      <c r="B14" s="7" t="s">
+      <c r="A14" s="12"/>
+      <c r="B14" s="5" t="s">
         <v>19</v>
       </c>
-      <c r="C14" s="7"/>
+      <c r="C14" s="5"/>
     </row>
     <row r="15" ht="22.5" customHeight="1" spans="1:3">
-      <c r="A15" s="17" t="s">
+      <c r="A15" s="13" t="s">
         <v>20</v>
       </c>
-      <c r="B15" s="7" t="s">
+      <c r="B15" s="5" t="s">
         <v>21</v>
       </c>
-      <c r="C15" s="7"/>
+      <c r="C15" s="5"/>
     </row>
     <row r="16" ht="22.5" customHeight="1" spans="1:3">
-      <c r="A16" s="18" t="s">
+      <c r="A16" s="14" t="s">
         <v>22</v>
       </c>
-      <c r="B16" s="7" t="s">
+      <c r="B16" s="5" t="s">
         <v>23</v>
       </c>
-      <c r="C16" s="7"/>
+      <c r="C16" s="5"/>
     </row>
     <row r="17" ht="22.5" customHeight="1" spans="1:3">
-      <c r="A17" s="20"/>
-      <c r="B17" s="7" t="s">
+      <c r="A17" s="15"/>
+      <c r="B17" s="5" t="s">
         <v>24</v>
       </c>
-      <c r="C17" s="7"/>
+      <c r="C17" s="5"/>
     </row>
     <row r="18" ht="22.5" customHeight="1" spans="1:3">
-      <c r="A18" s="20"/>
-      <c r="B18" s="7" t="s">
+      <c r="A18" s="15"/>
+      <c r="B18" s="5" t="s">
         <v>25</v>
       </c>
-      <c r="C18" s="7"/>
+      <c r="C18" s="5"/>
     </row>
     <row r="19" ht="22.5" customHeight="1" spans="1:3">
-      <c r="A19" s="20"/>
-      <c r="B19" s="7" t="s">
+      <c r="A19" s="15"/>
+      <c r="B19" s="5" t="s">
         <v>26</v>
       </c>
-      <c r="C19" s="7"/>
+      <c r="C19" s="5"/>
     </row>
     <row r="20" ht="22.5" customHeight="1" spans="1:3">
-      <c r="A20" s="16"/>
-      <c r="B20" s="7" t="s">
+      <c r="A20" s="12"/>
+      <c r="B20" s="5" t="s">
         <v>27</v>
       </c>
-      <c r="C20" s="7"/>
+      <c r="C20" s="5"/>
     </row>
     <row r="21" ht="22.5" customHeight="1"/>
     <row r="22" ht="15.5" customHeight="1" spans="8:8">
@@ -1611,8 +1621,8 @@
   <sheetPr/>
   <dimension ref="A1:E24"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D13" sqref="D13"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B6" sqref="B6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="4"/>
@@ -1623,184 +1633,168 @@
   </cols>
   <sheetData>
     <row r="1" ht="22.5" customHeight="1" spans="1:5">
-      <c r="A1" s="11" t="s">
+      <c r="A1" s="7" t="s">
         <v>28</v>
       </c>
-      <c r="B1" s="12"/>
+      <c r="B1" s="8"/>
       <c r="C1"/>
-      <c r="D1" s="11" t="s">
+      <c r="D1" s="7" t="s">
         <v>29</v>
       </c>
-      <c r="E1" s="12"/>
+      <c r="E1" s="8"/>
     </row>
     <row r="2" ht="22.5" customHeight="1" spans="1:5">
-      <c r="A2" s="13" t="s">
+      <c r="A2" s="9" t="s">
         <v>30</v>
       </c>
-      <c r="B2" s="13" t="s">
+      <c r="B2" s="9" t="s">
         <v>31</v>
       </c>
       <c r="C2"/>
-      <c r="D2" s="13" t="s">
+      <c r="D2" s="9" t="s">
         <v>30</v>
       </c>
-      <c r="E2" s="13" t="s">
+      <c r="E2" s="9" t="s">
         <v>31</v>
       </c>
     </row>
     <row r="3" ht="22.5" customHeight="1" spans="1:5">
-      <c r="A3" s="10" t="s">
+      <c r="A3" s="6" t="s">
         <v>32</v>
       </c>
-      <c r="B3" s="10" t="s">
+      <c r="B3" s="6" t="s">
         <v>33</v>
       </c>
       <c r="C3"/>
-      <c r="D3" s="10"/>
-      <c r="E3" s="10"/>
+      <c r="D3" s="6"/>
+      <c r="E3" s="6"/>
     </row>
     <row r="4" ht="22.5" customHeight="1" spans="1:5">
-      <c r="A4" s="7" t="s">
+      <c r="A4" s="5" t="s">
         <v>34</v>
       </c>
-      <c r="B4" s="7" t="s">
+      <c r="B4" s="5" t="s">
         <v>35</v>
       </c>
       <c r="C4"/>
-      <c r="D4" s="7"/>
-      <c r="E4" s="7"/>
+      <c r="D4" s="5"/>
+      <c r="E4" s="5"/>
     </row>
     <row r="5" ht="22.5" customHeight="1" spans="1:5">
-      <c r="A5" s="7" t="s">
+      <c r="A5" s="5" t="s">
         <v>36</v>
       </c>
-      <c r="B5" s="7" t="s">
+      <c r="B5" s="5" t="s">
         <v>37</v>
       </c>
       <c r="C5"/>
-      <c r="D5" s="7"/>
-      <c r="E5" s="7"/>
+      <c r="D5" s="5"/>
+      <c r="E5" s="5"/>
     </row>
     <row r="6" ht="22.5" customHeight="1" spans="1:5">
-      <c r="A6" s="7" t="s">
+      <c r="A6" s="5" t="s">
         <v>38</v>
       </c>
-      <c r="B6" s="7" t="s">
+      <c r="B6" s="5" t="s">
         <v>39</v>
       </c>
       <c r="C6"/>
-      <c r="D6" s="7"/>
-      <c r="E6" s="7"/>
+      <c r="D6" s="5"/>
+      <c r="E6" s="5"/>
     </row>
     <row r="7" ht="22.5" customHeight="1" spans="1:5">
-      <c r="A7" s="7" t="s">
+      <c r="A7" s="5" t="s">
         <v>40</v>
       </c>
-      <c r="B7" s="7" t="s">
+      <c r="B7" s="5" t="s">
         <v>41</v>
       </c>
       <c r="C7"/>
-      <c r="D7" s="7"/>
-      <c r="E7" s="7"/>
+      <c r="D7" s="5"/>
+      <c r="E7" s="5"/>
     </row>
     <row r="8" ht="22.5" customHeight="1" spans="1:5">
-      <c r="A8" s="7" t="s">
+      <c r="A8" s="5" t="s">
         <v>42</v>
       </c>
-      <c r="B8" s="7" t="s">
+      <c r="B8" s="5" t="s">
         <v>43</v>
       </c>
       <c r="C8"/>
-      <c r="D8" s="7"/>
-      <c r="E8" s="7"/>
+      <c r="D8" s="5"/>
+      <c r="E8" s="5"/>
     </row>
     <row r="9" ht="22.5" customHeight="1" spans="1:5">
-      <c r="A9" s="7" t="s">
+      <c r="A9" s="5" t="s">
         <v>44</v>
       </c>
-      <c r="B9" s="7" t="s">
+      <c r="B9" s="5" t="s">
         <v>45</v>
       </c>
       <c r="C9"/>
-      <c r="D9" s="7"/>
-      <c r="E9" s="7"/>
+      <c r="D9" s="5"/>
+      <c r="E9" s="5"/>
     </row>
     <row r="10" ht="22.5" customHeight="1" spans="1:5">
-      <c r="A10" s="7" t="s">
+      <c r="A10" s="5" t="s">
         <v>46</v>
       </c>
-      <c r="B10" s="7" t="s">
+      <c r="B10" s="5" t="s">
         <v>47</v>
       </c>
       <c r="C10"/>
-      <c r="D10" s="7"/>
-      <c r="E10" s="7"/>
+      <c r="D10" s="5"/>
+      <c r="E10" s="5"/>
     </row>
     <row r="11" ht="22.5" customHeight="1" spans="1:5">
-      <c r="A11" s="7" t="s">
+      <c r="A11" s="5" t="s">
         <v>48</v>
       </c>
-      <c r="B11" s="7" t="s">
+      <c r="B11" s="5" t="s">
         <v>49</v>
       </c>
-      <c r="D11" s="7"/>
-      <c r="E11" s="7"/>
+      <c r="D11" s="5"/>
+      <c r="E11" s="5"/>
     </row>
     <row r="12" ht="22.5" customHeight="1" spans="1:5">
-      <c r="A12" s="7" t="s">
+      <c r="A12" s="5" t="s">
         <v>50</v>
       </c>
-      <c r="B12" s="7" t="s">
+      <c r="B12" s="5" t="s">
         <v>51</v>
       </c>
-      <c r="D12" s="7"/>
-      <c r="E12" s="7"/>
+      <c r="D12" s="5"/>
+      <c r="E12" s="5"/>
     </row>
     <row r="13" ht="22.5" customHeight="1" spans="1:5">
-      <c r="A13" s="7" t="s">
+      <c r="A13" s="5" t="s">
         <v>52</v>
       </c>
-      <c r="B13" s="7" t="s">
+      <c r="B13" s="5" t="s">
         <v>53</v>
       </c>
-      <c r="D13" s="7"/>
-      <c r="E13" s="7"/>
-    </row>
-    <row r="14" ht="22.5" customHeight="1" spans="4:5">
-      <c r="D14" s="7"/>
-      <c r="E14" s="7"/>
-    </row>
-    <row r="15" ht="22.5" customHeight="1" spans="4:5">
-      <c r="D15" s="7"/>
-      <c r="E15" s="7"/>
-    </row>
-    <row r="16" spans="1:2">
-      <c r="A16"/>
-      <c r="B16"/>
-    </row>
-    <row r="17" spans="1:2">
-      <c r="A17"/>
-      <c r="B17"/>
-    </row>
-    <row r="18" spans="1:2">
-      <c r="A18"/>
-      <c r="B18"/>
-    </row>
-    <row r="19" spans="1:2">
-      <c r="A19"/>
-      <c r="B19"/>
-    </row>
-    <row r="20" spans="1:2">
-      <c r="A20"/>
-      <c r="B20"/>
-    </row>
-    <row r="21" spans="1:2">
-      <c r="A21"/>
-      <c r="B21"/>
-    </row>
-    <row r="22" spans="1:2">
-      <c r="A22"/>
-      <c r="B22"/>
+      <c r="D13" s="5"/>
+      <c r="E13" s="5"/>
+    </row>
+    <row r="14" ht="22.5" customHeight="1" spans="1:5">
+      <c r="A14" s="5" t="s">
+        <v>54</v>
+      </c>
+      <c r="B14" s="5" t="s">
+        <v>55</v>
+      </c>
+      <c r="D14" s="5"/>
+      <c r="E14" s="5"/>
+    </row>
+    <row r="15" ht="22.5" customHeight="1" spans="1:5">
+      <c r="A15" s="5" t="s">
+        <v>56</v>
+      </c>
+      <c r="B15" s="5" t="s">
+        <v>57</v>
+      </c>
+      <c r="D15" s="5"/>
+      <c r="E15" s="5"/>
     </row>
     <row r="23" spans="1:2">
       <c r="A23"/>
@@ -1839,149 +1833,149 @@
   <sheetData>
     <row r="1" ht="18" customHeight="1" spans="1:3">
       <c r="A1" s="2" t="s">
-        <v>54</v>
+        <v>58</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>55</v>
+        <v>59</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>56</v>
+        <v>60</v>
       </c>
     </row>
     <row r="2" ht="18" customHeight="1" spans="1:3">
       <c r="A2" s="3" t="s">
-        <v>57</v>
-      </c>
-      <c r="B2" s="4" t="s">
-        <v>58</v>
-      </c>
-      <c r="C2" s="4" t="s">
-        <v>59</v>
+        <v>61</v>
+      </c>
+      <c r="B2" s="3" t="s">
+        <v>62</v>
+      </c>
+      <c r="C2" s="3" t="s">
+        <v>63</v>
       </c>
     </row>
     <row r="3" ht="16.5" spans="1:3">
-      <c r="A3" s="5"/>
-      <c r="B3" s="6" t="s">
-        <v>60</v>
-      </c>
-      <c r="C3" s="6" t="s">
-        <v>61</v>
+      <c r="A3" s="4"/>
+      <c r="B3" s="3" t="s">
+        <v>64</v>
+      </c>
+      <c r="C3" s="3" t="s">
+        <v>65</v>
       </c>
     </row>
     <row r="4" ht="16.5" spans="1:3">
-      <c r="A4" s="5"/>
-      <c r="B4" s="7" t="s">
-        <v>62</v>
-      </c>
-      <c r="C4" s="7" t="s">
-        <v>63</v>
+      <c r="A4" s="4"/>
+      <c r="B4" s="5" t="s">
+        <v>66</v>
+      </c>
+      <c r="C4" s="5" t="s">
+        <v>67</v>
       </c>
     </row>
     <row r="5" ht="16.5" spans="1:3">
-      <c r="A5" s="5"/>
-      <c r="B5" s="7" t="s">
-        <v>64</v>
-      </c>
-      <c r="C5" s="7" t="s">
-        <v>65</v>
+      <c r="A5" s="4"/>
+      <c r="B5" s="5" t="s">
+        <v>68</v>
+      </c>
+      <c r="C5" s="5" t="s">
+        <v>69</v>
       </c>
     </row>
     <row r="6" ht="16.5" spans="1:3">
-      <c r="A6" s="5"/>
-      <c r="B6" s="7" t="s">
-        <v>66</v>
-      </c>
-      <c r="C6" s="7" t="s">
-        <v>67</v>
+      <c r="A6" s="4"/>
+      <c r="B6" s="5" t="s">
+        <v>70</v>
+      </c>
+      <c r="C6" s="5" t="s">
+        <v>71</v>
       </c>
     </row>
     <row r="7" ht="16.5" spans="1:3">
-      <c r="A7" s="5"/>
-      <c r="B7" s="7" t="s">
-        <v>68</v>
-      </c>
-      <c r="C7" s="7" t="s">
-        <v>69</v>
+      <c r="A7" s="4"/>
+      <c r="B7" s="5" t="s">
+        <v>72</v>
+      </c>
+      <c r="C7" s="5" t="s">
+        <v>73</v>
       </c>
     </row>
     <row r="8" ht="16.5" spans="1:3">
-      <c r="A8" s="5"/>
-      <c r="B8" s="7" t="s">
-        <v>70</v>
-      </c>
-      <c r="C8" s="7" t="s">
-        <v>71</v>
+      <c r="A8" s="4"/>
+      <c r="B8" s="5" t="s">
+        <v>74</v>
+      </c>
+      <c r="C8" s="5" t="s">
+        <v>75</v>
       </c>
     </row>
     <row r="9" ht="16.5" spans="1:3">
-      <c r="A9" s="8"/>
-      <c r="B9" s="7" t="s">
-        <v>72</v>
-      </c>
-      <c r="C9" s="7" t="s">
-        <v>73</v>
+      <c r="A9" s="6"/>
+      <c r="B9" s="5" t="s">
+        <v>76</v>
+      </c>
+      <c r="C9" s="5" t="s">
+        <v>77</v>
       </c>
     </row>
     <row r="10" ht="16.5" spans="1:3">
-      <c r="A10" s="7" t="s">
-        <v>74</v>
-      </c>
-      <c r="B10" s="7" t="s">
-        <v>75</v>
-      </c>
-      <c r="C10" s="7" t="s">
-        <v>76</v>
+      <c r="A10" s="5" t="s">
+        <v>78</v>
+      </c>
+      <c r="B10" s="5" t="s">
+        <v>79</v>
+      </c>
+      <c r="C10" s="5" t="s">
+        <v>80</v>
       </c>
     </row>
     <row r="11" ht="16.5" spans="1:3">
-      <c r="A11" s="7" t="s">
-        <v>77</v>
-      </c>
-      <c r="B11" s="7" t="s">
-        <v>75</v>
-      </c>
-      <c r="C11" s="7" t="s">
-        <v>78</v>
+      <c r="A11" s="5" t="s">
+        <v>81</v>
+      </c>
+      <c r="B11" s="5" t="s">
+        <v>79</v>
+      </c>
+      <c r="C11" s="5" t="s">
+        <v>82</v>
       </c>
     </row>
     <row r="12" ht="16.5" spans="1:3">
-      <c r="A12" s="4" t="s">
+      <c r="A12" s="3" t="s">
+        <v>83</v>
+      </c>
+      <c r="B12" s="5" t="s">
+        <v>84</v>
+      </c>
+      <c r="C12" s="5" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="13" ht="16.5" spans="1:3">
+      <c r="A13" s="4"/>
+      <c r="B13" s="5" t="s">
+        <v>86</v>
+      </c>
+      <c r="C13" s="5" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="14" ht="16.5" spans="1:3">
+      <c r="A14" s="6"/>
+      <c r="B14" s="5" t="s">
+        <v>88</v>
+      </c>
+      <c r="C14" s="5" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="15" ht="16.5" spans="1:3">
+      <c r="A15" s="5" t="s">
+        <v>90</v>
+      </c>
+      <c r="B15" s="5" t="s">
         <v>79</v>
       </c>
-      <c r="B12" s="7" t="s">
-        <v>80</v>
-      </c>
-      <c r="C12" s="7" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="13" ht="16.5" spans="1:3">
-      <c r="A13" s="9"/>
-      <c r="B13" s="7" t="s">
-        <v>82</v>
-      </c>
-      <c r="C13" s="7" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="14" ht="16.5" spans="1:3">
-      <c r="A14" s="10"/>
-      <c r="B14" s="7" t="s">
-        <v>84</v>
-      </c>
-      <c r="C14" s="7" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="15" ht="16.5" spans="1:3">
-      <c r="A15" s="7" t="s">
-        <v>86</v>
-      </c>
-      <c r="B15" s="7" t="s">
-        <v>75</v>
-      </c>
-      <c r="C15" s="7" t="s">
-        <v>87</v>
+      <c r="C15" s="5" t="s">
+        <v>91</v>
       </c>
     </row>
   </sheetData>

--- a/src/main/resources/files/总览.xlsx
+++ b/src/main/resources/files/总览.xlsx
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="96" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="98" uniqueCount="94">
   <si>
     <t>前台</t>
   </si>
@@ -203,6 +203,12 @@
   </si>
   <si>
     <t>Nginx</t>
+  </si>
+  <si>
+    <t>分布式任务调度平台</t>
+  </si>
+  <si>
+    <t>xxl-job</t>
   </si>
   <si>
     <t>一级目录</t>
@@ -476,7 +482,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="37">
+  <fills count="38">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -498,6 +504,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FF00B0F0"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -904,7 +916,7 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="7" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="7" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -928,16 +940,16 @@
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="7" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="8" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="8" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="9" borderId="12" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="8" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="9" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="9" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="10" borderId="12" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
@@ -946,89 +958,89 @@
     <xf numFmtId="0" fontId="15" fillId="0" borderId="14" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="20" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="19" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="20" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="19" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="20" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="19" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="20" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="19" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="20" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="19" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="20" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="16">
+  <cellXfs count="17">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1059,7 +1071,10 @@
     <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1444,25 +1459,25 @@
   </cols>
   <sheetData>
     <row r="1" ht="25" customHeight="1" spans="1:3">
-      <c r="A1" s="10" t="s">
+      <c r="A1" s="11" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="10"/>
-      <c r="C1" s="10"/>
+      <c r="B1" s="11"/>
+      <c r="C1" s="11"/>
     </row>
     <row r="2" ht="22.5" customHeight="1" spans="1:3">
-      <c r="A2" s="11" t="s">
+      <c r="A2" s="12" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="11" t="s">
+      <c r="B2" s="12" t="s">
         <v>2</v>
       </c>
-      <c r="C2" s="11" t="s">
+      <c r="C2" s="12" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="3" ht="22.5" customHeight="1" spans="1:3">
-      <c r="A3" s="12" t="s">
+      <c r="A3" s="13" t="s">
         <v>4</v>
       </c>
       <c r="B3" s="5" t="s">
@@ -1473,28 +1488,28 @@
       </c>
     </row>
     <row r="4" ht="22.5" customHeight="1" spans="1:3">
-      <c r="A4" s="13"/>
+      <c r="A4" s="14"/>
       <c r="B4" s="5" t="s">
         <v>7</v>
       </c>
       <c r="C4" s="5"/>
     </row>
     <row r="5" ht="22.5" customHeight="1" spans="1:3">
-      <c r="A5" s="13"/>
+      <c r="A5" s="14"/>
       <c r="B5" s="5" t="s">
         <v>8</v>
       </c>
       <c r="C5" s="5"/>
     </row>
     <row r="6" ht="22.5" customHeight="1" spans="1:3">
-      <c r="A6" s="13"/>
+      <c r="A6" s="14"/>
       <c r="B6" s="5" t="s">
         <v>9</v>
       </c>
       <c r="C6" s="5"/>
     </row>
     <row r="7" ht="22.5" customHeight="1" spans="1:3">
-      <c r="A7" s="14" t="s">
+      <c r="A7" s="15" t="s">
         <v>10</v>
       </c>
       <c r="B7" s="5" t="s">
@@ -1505,56 +1520,56 @@
       </c>
     </row>
     <row r="8" ht="22.5" customHeight="1" spans="1:3">
-      <c r="A8" s="15"/>
+      <c r="A8" s="16"/>
       <c r="B8" s="5" t="s">
         <v>13</v>
       </c>
       <c r="C8" s="5"/>
     </row>
     <row r="9" ht="22.5" customHeight="1" spans="1:3">
-      <c r="A9" s="15"/>
+      <c r="A9" s="16"/>
       <c r="B9" s="5" t="s">
         <v>14</v>
       </c>
       <c r="C9" s="5"/>
     </row>
     <row r="10" ht="22.5" customHeight="1" spans="1:3">
-      <c r="A10" s="15"/>
+      <c r="A10" s="16"/>
       <c r="B10" s="5" t="s">
         <v>15</v>
       </c>
       <c r="C10" s="5"/>
     </row>
     <row r="11" ht="22.5" customHeight="1" spans="1:3">
-      <c r="A11" s="15"/>
+      <c r="A11" s="16"/>
       <c r="B11" s="5" t="s">
         <v>16</v>
       </c>
       <c r="C11" s="5"/>
     </row>
     <row r="12" ht="22.5" customHeight="1" spans="1:3">
-      <c r="A12" s="15"/>
+      <c r="A12" s="16"/>
       <c r="B12" s="5" t="s">
         <v>17</v>
       </c>
       <c r="C12" s="5"/>
     </row>
     <row r="13" ht="22.5" customHeight="1" spans="1:3">
-      <c r="A13" s="15"/>
+      <c r="A13" s="16"/>
       <c r="B13" s="5" t="s">
         <v>18</v>
       </c>
       <c r="C13" s="5"/>
     </row>
     <row r="14" ht="22.5" customHeight="1" spans="1:3">
-      <c r="A14" s="12"/>
+      <c r="A14" s="13"/>
       <c r="B14" s="5" t="s">
         <v>19</v>
       </c>
       <c r="C14" s="5"/>
     </row>
     <row r="15" ht="22.5" customHeight="1" spans="1:3">
-      <c r="A15" s="13" t="s">
+      <c r="A15" s="14" t="s">
         <v>20</v>
       </c>
       <c r="B15" s="5" t="s">
@@ -1563,7 +1578,7 @@
       <c r="C15" s="5"/>
     </row>
     <row r="16" ht="22.5" customHeight="1" spans="1:3">
-      <c r="A16" s="14" t="s">
+      <c r="A16" s="15" t="s">
         <v>22</v>
       </c>
       <c r="B16" s="5" t="s">
@@ -1572,28 +1587,28 @@
       <c r="C16" s="5"/>
     </row>
     <row r="17" ht="22.5" customHeight="1" spans="1:3">
-      <c r="A17" s="15"/>
+      <c r="A17" s="16"/>
       <c r="B17" s="5" t="s">
         <v>24</v>
       </c>
       <c r="C17" s="5"/>
     </row>
     <row r="18" ht="22.5" customHeight="1" spans="1:3">
-      <c r="A18" s="15"/>
+      <c r="A18" s="16"/>
       <c r="B18" s="5" t="s">
         <v>25</v>
       </c>
       <c r="C18" s="5"/>
     </row>
     <row r="19" ht="22.5" customHeight="1" spans="1:3">
-      <c r="A19" s="15"/>
+      <c r="A19" s="16"/>
       <c r="B19" s="5" t="s">
         <v>26</v>
       </c>
       <c r="C19" s="5"/>
     </row>
     <row r="20" ht="22.5" customHeight="1" spans="1:3">
-      <c r="A20" s="12"/>
+      <c r="A20" s="13"/>
       <c r="B20" s="5" t="s">
         <v>27</v>
       </c>
@@ -1622,7 +1637,7 @@
   <dimension ref="A1:E24"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B6" sqref="B6"/>
+      <selection activeCell="D26" sqref="D26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="4"/>
@@ -1662,7 +1677,7 @@
       <c r="A3" s="6" t="s">
         <v>32</v>
       </c>
-      <c r="B3" s="6" t="s">
+      <c r="B3" s="5" t="s">
         <v>33</v>
       </c>
       <c r="C3"/>
@@ -1684,7 +1699,7 @@
       <c r="A5" s="5" t="s">
         <v>36</v>
       </c>
-      <c r="B5" s="5" t="s">
+      <c r="B5" s="10" t="s">
         <v>37</v>
       </c>
       <c r="C5"/>
@@ -1695,7 +1710,7 @@
       <c r="A6" s="5" t="s">
         <v>38</v>
       </c>
-      <c r="B6" s="5" t="s">
+      <c r="B6" s="10" t="s">
         <v>39</v>
       </c>
       <c r="C6"/>
@@ -1795,6 +1810,14 @@
       </c>
       <c r="D15" s="5"/>
       <c r="E15" s="5"/>
+    </row>
+    <row r="16" ht="19" customHeight="1" spans="1:2">
+      <c r="A16" s="5" t="s">
+        <v>58</v>
+      </c>
+      <c r="B16" s="5" t="s">
+        <v>59</v>
+      </c>
     </row>
     <row r="23" spans="1:2">
       <c r="A23"/>
@@ -1833,149 +1856,149 @@
   <sheetData>
     <row r="1" ht="18" customHeight="1" spans="1:3">
       <c r="A1" s="2" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
     </row>
     <row r="2" ht="18" customHeight="1" spans="1:3">
       <c r="A2" s="3" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="C2" s="3" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
     </row>
     <row r="3" ht="16.5" spans="1:3">
       <c r="A3" s="4"/>
       <c r="B3" s="3" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="C3" s="3" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
     </row>
     <row r="4" ht="16.5" spans="1:3">
       <c r="A4" s="4"/>
       <c r="B4" s="5" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="C4" s="5" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
     </row>
     <row r="5" ht="16.5" spans="1:3">
       <c r="A5" s="4"/>
       <c r="B5" s="5" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="C5" s="5" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
     </row>
     <row r="6" ht="16.5" spans="1:3">
       <c r="A6" s="4"/>
       <c r="B6" s="5" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="C6" s="5" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
     </row>
     <row r="7" ht="16.5" spans="1:3">
       <c r="A7" s="4"/>
       <c r="B7" s="5" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="C7" s="5" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
     </row>
     <row r="8" ht="16.5" spans="1:3">
       <c r="A8" s="4"/>
       <c r="B8" s="5" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="C8" s="5" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
     </row>
     <row r="9" ht="16.5" spans="1:3">
       <c r="A9" s="6"/>
       <c r="B9" s="5" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="C9" s="5" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
     </row>
     <row r="10" ht="16.5" spans="1:3">
       <c r="A10" s="5" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="B10" s="5" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="C10" s="5" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
     </row>
     <row r="11" ht="16.5" spans="1:3">
       <c r="A11" s="5" t="s">
+        <v>83</v>
+      </c>
+      <c r="B11" s="5" t="s">
         <v>81</v>
       </c>
-      <c r="B11" s="5" t="s">
-        <v>79</v>
-      </c>
       <c r="C11" s="5" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
     </row>
     <row r="12" ht="16.5" spans="1:3">
       <c r="A12" s="3" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="B12" s="5" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="C12" s="5" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
     </row>
     <row r="13" ht="16.5" spans="1:3">
       <c r="A13" s="4"/>
       <c r="B13" s="5" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="C13" s="5" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
     </row>
     <row r="14" ht="16.5" spans="1:3">
       <c r="A14" s="6"/>
       <c r="B14" s="5" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="C14" s="5" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
     </row>
     <row r="15" ht="16.5" spans="1:3">
       <c r="A15" s="5" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="B15" s="5" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="C15" s="5" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
     </row>
   </sheetData>
